--- a/Python Projects/Python Data Science/School related/spreadsheet/Daily Temperature Mean Analysis.xlsx
+++ b/Python Projects/Python Data Science/School related/spreadsheet/Daily Temperature Mean Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Projects\pythonlearningprojects\Python Projects\Python Data Science\School related\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D19F3-3832-49D9-91F3-887B1A4A22D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A5FDD7-BEE1-4165-9806-1622D4337B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{2A7F23AE-E452-4627-A1C1-3CA04ED5BA10}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="706" xr2:uid="{2A7F23AE-E452-4627-A1C1-3CA04ED5BA10}"/>
   </bookViews>
   <sheets>
     <sheet name="1987 May-Oct UK Mean Temp." sheetId="1" r:id="rId1"/>
@@ -20,6 +20,28 @@
     <sheet name="1987 May-Oct International" sheetId="5" r:id="rId5"/>
     <sheet name="1987 May-Oct Worldwide" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'1987 May-Oct UK Mean Temp.'!$C$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'1987 May-Oct UK Mean Temp.'!$C$3:$C$186</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'1987 May-Oct UK Mean Temp.'!$C$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'1987 May-Oct UK Mean Temp.'!$C$3:$C$186</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'1987 May-Oct UK Mean Temp.'!$D$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'1987 May-Oct UK Mean Temp.'!$D$3:$D$186</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'1987 May-Oct UK Mean Temp.'!$E$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'1987 May-Oct UK Mean Temp.'!$E$3:$E$186</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'1987 May-Oct UK Mean Temp.'!$F$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'1987 May-Oct UK Mean Temp.'!$F$3:$F$186</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'1987 May-Oct UK Mean Temp.'!$G$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'1987 May-Oct UK Mean Temp.'!$G$3:$G$186</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'1987 May-Oct UK Mean Temp.'!$D$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'1987 May-Oct UK Mean Temp.'!$D$3:$D$186</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'1987 May-Oct UK Mean Temp.'!$E$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'1987 May-Oct UK Mean Temp.'!$E$3:$E$186</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'1987 May-Oct UK Mean Temp.'!$F$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'1987 May-Oct UK Mean Temp.'!$F$3:$F$186</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'1987 May-Oct UK Mean Temp.'!$G$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'1987 May-Oct UK Mean Temp.'!$G$3:$G$186</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -81,15 +103,22 @@
   <si>
     <t>Camborne</t>
   </si>
+  <si>
+    <t>Daily Mean Air Temperature</t>
+  </si>
+  <si>
+    <t>31/10/1987</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +135,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -152,6 +196,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7733,6 +7792,203 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>UK Mean Temperature Distribution</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>UK Mean Temperature Distribution</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{35A4176A-252C-49F3-84EA-587BA9D05EB1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Leuchars Daily Mean Temp.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2FC84F9B-904E-4E77-A427-17FC9BC21B9E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Camborne Daily Mean Temp.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{78E964CC-0A39-485B-9B47-60B3546E5D2B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Hurn Daily Mean Temp.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0C89517C-6292-402D-97A3-8A873BDAB93F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Heathrow Daily Mean Temp.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3F20C2ED-D39C-4084-BA47-CCD4CF53DDFA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Leeming Daily Mean Temp.</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Location</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Location</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Temperature, Degree C</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Temperature, Degree C</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -7771,6 +8027,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8781,6 +9077,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8897,6 +9708,84 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>515468</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>29131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>228786</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC3D77B-A1AF-437F-89BD-7C5BAFB58663}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="22268889" y="4133287"/>
+              <a:ext cx="10667068" cy="6400241"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9201,8 +10090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC6553B-FD34-4EF7-A740-063D7A7CB347}">
   <dimension ref="B1:N189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z104" sqref="Z104"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="68" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13734,12 +14623,1499 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A3ACF9-B694-428C-9DBF-B0BFB22AAD57}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="8">
+        <v>31898</v>
+      </c>
+      <c r="B2" s="9">
+        <v>23.825000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>31899</v>
+      </c>
+      <c r="B3" s="9">
+        <v>23.425000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>31900</v>
+      </c>
+      <c r="B4" s="9">
+        <v>21.716666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>31901</v>
+      </c>
+      <c r="B5" s="9">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>31902</v>
+      </c>
+      <c r="B6" s="9">
+        <v>21.062500000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>31903</v>
+      </c>
+      <c r="B7" s="9">
+        <v>20.075000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>31904</v>
+      </c>
+      <c r="B8" s="9">
+        <v>19.475000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
+        <v>31905</v>
+      </c>
+      <c r="B9" s="9">
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>31906</v>
+      </c>
+      <c r="B10" s="9">
+        <v>22.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
+        <v>31907</v>
+      </c>
+      <c r="B11" s="9">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
+        <v>31908</v>
+      </c>
+      <c r="B12" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="8">
+        <v>31909</v>
+      </c>
+      <c r="B13" s="9">
+        <v>23.437499999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="8">
+        <v>31910</v>
+      </c>
+      <c r="B14" s="9">
+        <v>23.074999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
+        <v>31911</v>
+      </c>
+      <c r="B15" s="9">
+        <v>22.662500000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="8">
+        <v>31912</v>
+      </c>
+      <c r="B16" s="9">
+        <v>23.150000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="8">
+        <v>31913</v>
+      </c>
+      <c r="B17" s="9">
+        <v>23.137499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="8">
+        <v>31914</v>
+      </c>
+      <c r="B18" s="9">
+        <v>23.362500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="8">
+        <v>31915</v>
+      </c>
+      <c r="B19" s="9">
+        <v>23.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="8">
+        <v>31916</v>
+      </c>
+      <c r="B20" s="9">
+        <v>24.185714285714287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="8">
+        <v>31917</v>
+      </c>
+      <c r="B21" s="9">
+        <v>23.74285714285714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="8">
+        <v>31918</v>
+      </c>
+      <c r="B22" s="9">
+        <v>25.757142857142856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="8">
+        <v>31919</v>
+      </c>
+      <c r="B23" s="9">
+        <v>24.085714285714285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="8">
+        <v>31920</v>
+      </c>
+      <c r="B24" s="9">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="8">
+        <v>31921</v>
+      </c>
+      <c r="B25" s="9">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="8">
+        <v>31922</v>
+      </c>
+      <c r="B26" s="9">
+        <v>23.542857142857144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="8">
+        <v>31923</v>
+      </c>
+      <c r="B27" s="9">
+        <v>22.185714285714283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="8">
+        <v>31924</v>
+      </c>
+      <c r="B28" s="9">
+        <v>22.737499999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="8">
+        <v>31925</v>
+      </c>
+      <c r="B29" s="9">
+        <v>24.312500000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="8">
+        <v>31926</v>
+      </c>
+      <c r="B30" s="9">
+        <v>24.3125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="8">
+        <v>31927</v>
+      </c>
+      <c r="B31" s="9">
+        <v>24.025000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="8">
+        <v>31928</v>
+      </c>
+      <c r="B32" s="9">
+        <v>23.700000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="8">
+        <v>31929</v>
+      </c>
+      <c r="B33" s="9">
+        <v>25.633333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="8">
+        <v>31930</v>
+      </c>
+      <c r="B34" s="9">
+        <v>27.299999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="8">
+        <v>31931</v>
+      </c>
+      <c r="B35" s="9">
+        <v>27.862499999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="8">
+        <v>31932</v>
+      </c>
+      <c r="B36" s="9">
+        <v>27.242857142857137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="8">
+        <v>31933</v>
+      </c>
+      <c r="B37" s="9">
+        <v>25.74285714285714</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="8">
+        <v>31934</v>
+      </c>
+      <c r="B38" s="9">
+        <v>24.875000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="8">
+        <v>31935</v>
+      </c>
+      <c r="B39" s="9">
+        <v>23.575000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="8">
+        <v>31936</v>
+      </c>
+      <c r="B40" s="9">
+        <v>22.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="8">
+        <v>31937</v>
+      </c>
+      <c r="B41" s="9">
+        <v>23.771428571428569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="8">
+        <v>31938</v>
+      </c>
+      <c r="B42" s="9">
+        <v>26.125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="8">
+        <v>31939</v>
+      </c>
+      <c r="B43" s="9">
+        <v>26.825000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="8">
+        <v>31940</v>
+      </c>
+      <c r="B44" s="9">
+        <v>26.762500000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="8">
+        <v>31941</v>
+      </c>
+      <c r="B45" s="9">
+        <v>27.012500000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="8">
+        <v>31942</v>
+      </c>
+      <c r="B46" s="9">
+        <v>24.537499999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="8">
+        <v>31943</v>
+      </c>
+      <c r="B47" s="9">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="8">
+        <v>31944</v>
+      </c>
+      <c r="B48" s="9">
+        <v>27.9375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="8">
+        <v>31945</v>
+      </c>
+      <c r="B49" s="9">
+        <v>26.1875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="8">
+        <v>31946</v>
+      </c>
+      <c r="B50" s="9">
+        <v>27.862499999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="8">
+        <v>31947</v>
+      </c>
+      <c r="B51" s="9">
+        <v>28.012499999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="8">
+        <v>31948</v>
+      </c>
+      <c r="B52" s="9">
+        <v>28.5625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="8">
+        <v>31949</v>
+      </c>
+      <c r="B53" s="9">
+        <v>25.971428571428568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="8">
+        <v>31950</v>
+      </c>
+      <c r="B54" s="9">
+        <v>26.400000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="8">
+        <v>31951</v>
+      </c>
+      <c r="B55" s="9">
+        <v>26.514285714285716</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="8">
+        <v>31952</v>
+      </c>
+      <c r="B56" s="9">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="8">
+        <v>31953</v>
+      </c>
+      <c r="B57" s="9">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="8">
+        <v>31954</v>
+      </c>
+      <c r="B58" s="9">
+        <v>28.024999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="8">
+        <v>31955</v>
+      </c>
+      <c r="B59" s="9">
+        <v>27.599999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="8">
+        <v>31956</v>
+      </c>
+      <c r="B60" s="9">
+        <v>26.674999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="8">
+        <v>31957</v>
+      </c>
+      <c r="B61" s="9">
+        <v>26.942857142857143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="8">
+        <v>31958</v>
+      </c>
+      <c r="B62" s="9">
+        <v>26.875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="8">
+        <v>31959</v>
+      </c>
+      <c r="B63" s="9">
+        <v>25.599999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="8">
+        <v>31960</v>
+      </c>
+      <c r="B64" s="9">
+        <v>29.433333333333334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="8">
+        <v>31961</v>
+      </c>
+      <c r="B65" s="9">
+        <v>27.714285714285715</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="8">
+        <v>31962</v>
+      </c>
+      <c r="B66" s="9">
+        <v>26.399999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="8">
+        <v>31963</v>
+      </c>
+      <c r="B67" s="9">
+        <v>27.024999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="8">
+        <v>31964</v>
+      </c>
+      <c r="B68" s="9">
+        <v>27.437499999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="8">
+        <v>31965</v>
+      </c>
+      <c r="B69" s="9">
+        <v>27.200000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="8">
+        <v>31966</v>
+      </c>
+      <c r="B70" s="9">
+        <v>27.237500000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="8">
+        <v>31967</v>
+      </c>
+      <c r="B71" s="9">
+        <v>28.362500000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="8">
+        <v>31968</v>
+      </c>
+      <c r="B72" s="9">
+        <v>27.328571428571426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="8">
+        <v>31969</v>
+      </c>
+      <c r="B73" s="9">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="8">
+        <v>31970</v>
+      </c>
+      <c r="B74" s="9">
+        <v>30.487499999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="8">
+        <v>31971</v>
+      </c>
+      <c r="B75" s="9">
+        <v>30.357142857142858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="8">
+        <v>31972</v>
+      </c>
+      <c r="B76" s="9">
+        <v>29.462500000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="8">
+        <v>31973</v>
+      </c>
+      <c r="B77" s="9">
+        <v>26.762499999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="8">
+        <v>31974</v>
+      </c>
+      <c r="B78" s="9">
+        <v>27.799999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="8">
+        <v>31975</v>
+      </c>
+      <c r="B79" s="9">
+        <v>25.799999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="8">
+        <v>31976</v>
+      </c>
+      <c r="B80" s="9">
+        <v>26.675000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="8">
+        <v>31977</v>
+      </c>
+      <c r="B81" s="9">
+        <v>24.249999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="8">
+        <v>31978</v>
+      </c>
+      <c r="B82" s="9">
+        <v>25.012499999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="8">
+        <v>31979</v>
+      </c>
+      <c r="B83" s="9">
+        <v>26.6875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="8">
+        <v>31980</v>
+      </c>
+      <c r="B84" s="9">
+        <v>25.533333333333331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="8">
+        <v>31981</v>
+      </c>
+      <c r="B85" s="9">
+        <v>27.3125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="8">
+        <v>31982</v>
+      </c>
+      <c r="B86" s="9">
+        <v>27.571428571428566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="8">
+        <v>31983</v>
+      </c>
+      <c r="B87" s="9">
+        <v>26.0625</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="8">
+        <v>31984</v>
+      </c>
+      <c r="B88" s="9">
+        <v>27.174999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="8">
+        <v>31985</v>
+      </c>
+      <c r="B89" s="9">
+        <v>27.312499999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="8">
+        <v>31986</v>
+      </c>
+      <c r="B90" s="9">
+        <v>29.375000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="8">
+        <v>31987</v>
+      </c>
+      <c r="B91" s="9">
+        <v>28.585714285714289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="8">
+        <v>31988</v>
+      </c>
+      <c r="B92" s="9">
+        <v>25.724999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="8">
+        <v>31989</v>
+      </c>
+      <c r="B93" s="9">
+        <v>26.699999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="8">
+        <v>31990</v>
+      </c>
+      <c r="B94" s="9">
+        <v>25.662499999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="8">
+        <v>31991</v>
+      </c>
+      <c r="B95" s="9">
+        <v>27.699999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="8">
+        <v>31992</v>
+      </c>
+      <c r="B96" s="9">
+        <v>28.262500000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="8">
+        <v>31993</v>
+      </c>
+      <c r="B97" s="9">
+        <v>28.671428571428571</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="8">
+        <v>31994</v>
+      </c>
+      <c r="B98" s="9">
+        <v>29.537500000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="8">
+        <v>31995</v>
+      </c>
+      <c r="B99" s="9">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="8">
+        <v>31996</v>
+      </c>
+      <c r="B100" s="9">
+        <v>30.237500000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="8">
+        <v>31997</v>
+      </c>
+      <c r="B101" s="9">
+        <v>30.862500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="8">
+        <v>31998</v>
+      </c>
+      <c r="B102" s="9">
+        <v>30.312499999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="8">
+        <v>31999</v>
+      </c>
+      <c r="B103" s="9">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="8">
+        <v>32000</v>
+      </c>
+      <c r="B104" s="9">
+        <v>28.412500000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="8">
+        <v>32001</v>
+      </c>
+      <c r="B105" s="9">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="8">
+        <v>32002</v>
+      </c>
+      <c r="B106" s="9">
+        <v>25.074999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="8">
+        <v>32003</v>
+      </c>
+      <c r="B107" s="9">
+        <v>26.012499999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="8">
+        <v>32004</v>
+      </c>
+      <c r="B108" s="9">
+        <v>25.087500000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="8">
+        <v>32005</v>
+      </c>
+      <c r="B109" s="9">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="8">
+        <v>32006</v>
+      </c>
+      <c r="B110" s="9">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="8">
+        <v>32007</v>
+      </c>
+      <c r="B111" s="9">
+        <v>25.662500000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="8">
+        <v>32008</v>
+      </c>
+      <c r="B112" s="9">
+        <v>29.824999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="8">
+        <v>32009</v>
+      </c>
+      <c r="B113" s="9">
+        <v>28.912500000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="8">
+        <v>32010</v>
+      </c>
+      <c r="B114" s="9">
+        <v>25.987499999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="8">
+        <v>32011</v>
+      </c>
+      <c r="B115" s="9">
+        <v>26.762499999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="8">
+        <v>32012</v>
+      </c>
+      <c r="B116" s="9">
+        <v>26.475000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="8">
+        <v>32013</v>
+      </c>
+      <c r="B117" s="9">
+        <v>29.049999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="8">
+        <v>32014</v>
+      </c>
+      <c r="B118" s="9">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="8">
+        <v>32015</v>
+      </c>
+      <c r="B119" s="9">
+        <v>27.450000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="8">
+        <v>32016</v>
+      </c>
+      <c r="B120" s="9">
+        <v>27.662499999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="8">
+        <v>32017</v>
+      </c>
+      <c r="B121" s="9">
+        <v>28.842857142857149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="8">
+        <v>32018</v>
+      </c>
+      <c r="B122" s="9">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="8">
+        <v>32019</v>
+      </c>
+      <c r="B123" s="9">
+        <v>28.224999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="8">
+        <v>32020</v>
+      </c>
+      <c r="B124" s="9">
+        <v>27.375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" s="8">
+        <v>32021</v>
+      </c>
+      <c r="B125" s="9">
+        <v>26.612500000000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="8">
+        <v>32022</v>
+      </c>
+      <c r="B126" s="9">
+        <v>23.987500000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="8">
+        <v>32023</v>
+      </c>
+      <c r="B127" s="9">
+        <v>24.737499999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="8">
+        <v>32024</v>
+      </c>
+      <c r="B128" s="9">
+        <v>24.524999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="8">
+        <v>32025</v>
+      </c>
+      <c r="B129" s="9">
+        <v>26.133333333333336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="8">
+        <v>32026</v>
+      </c>
+      <c r="B130" s="9">
+        <v>26.737500000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="8">
+        <v>32027</v>
+      </c>
+      <c r="B131" s="9">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="8">
+        <v>32028</v>
+      </c>
+      <c r="B132" s="9">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="8">
+        <v>32029</v>
+      </c>
+      <c r="B133" s="9">
+        <v>27.650000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="8">
+        <v>32030</v>
+      </c>
+      <c r="B134" s="9">
+        <v>27.9375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="8">
+        <v>32031</v>
+      </c>
+      <c r="B135" s="9">
+        <v>27.662499999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="8">
+        <v>32032</v>
+      </c>
+      <c r="B136" s="9">
+        <v>24.725000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="8">
+        <v>32033</v>
+      </c>
+      <c r="B137" s="9">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="8">
+        <v>32034</v>
+      </c>
+      <c r="B138" s="9">
+        <v>26.671428571428571</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="8">
+        <v>32035</v>
+      </c>
+      <c r="B139" s="9">
+        <v>26.612500000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" s="8">
+        <v>32036</v>
+      </c>
+      <c r="B140" s="9">
+        <v>26.412500000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="8">
+        <v>32037</v>
+      </c>
+      <c r="B141" s="9">
+        <v>27.450000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="8">
+        <v>32038</v>
+      </c>
+      <c r="B142" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="8">
+        <v>32039</v>
+      </c>
+      <c r="B143" s="9">
+        <v>27.599999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="8">
+        <v>32040</v>
+      </c>
+      <c r="B144" s="9">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" s="8">
+        <v>32041</v>
+      </c>
+      <c r="B145" s="9">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="8">
+        <v>32042</v>
+      </c>
+      <c r="B146" s="9">
+        <v>23.337500000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="8">
+        <v>32043</v>
+      </c>
+      <c r="B147" s="9">
+        <v>24.1875</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="8">
+        <v>32044</v>
+      </c>
+      <c r="B148" s="9">
+        <v>22.025000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="8">
+        <v>32045</v>
+      </c>
+      <c r="B149" s="9">
+        <v>21.625</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" s="8">
+        <v>32046</v>
+      </c>
+      <c r="B150" s="9">
+        <v>21.825000000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="8">
+        <v>32047</v>
+      </c>
+      <c r="B151" s="9">
+        <v>22.250000000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="8">
+        <v>32048</v>
+      </c>
+      <c r="B152" s="9">
+        <v>24.249999999999996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="8">
+        <v>32049</v>
+      </c>
+      <c r="B153" s="9">
+        <v>24.875000000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="8">
+        <v>32050</v>
+      </c>
+      <c r="B154" s="9">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" s="8">
+        <v>32051</v>
+      </c>
+      <c r="B155" s="9">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="8">
+        <v>32052</v>
+      </c>
+      <c r="B156" s="9">
+        <v>18.974999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="8">
+        <v>32053</v>
+      </c>
+      <c r="B157" s="9">
+        <v>19.962499999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="8">
+        <v>32054</v>
+      </c>
+      <c r="B158" s="9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="8">
+        <v>32055</v>
+      </c>
+      <c r="B159" s="9">
+        <v>15.787500000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" s="8">
+        <v>32056</v>
+      </c>
+      <c r="B160" s="9">
+        <v>18.442857142857143</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="8">
+        <v>32057</v>
+      </c>
+      <c r="B161" s="9">
+        <v>19.942857142857147</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="8">
+        <v>32058</v>
+      </c>
+      <c r="B162" s="9">
+        <v>14.262499999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="8">
+        <v>32059</v>
+      </c>
+      <c r="B163" s="9">
+        <v>15.575000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="8">
+        <v>32060</v>
+      </c>
+      <c r="B164" s="9">
+        <v>22.024999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" s="8">
+        <v>32061</v>
+      </c>
+      <c r="B165" s="9">
+        <v>22.024999999999995</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="8">
+        <v>32062</v>
+      </c>
+      <c r="B166" s="9">
+        <v>20.724999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="8">
+        <v>32063</v>
+      </c>
+      <c r="B167" s="9">
+        <v>16.824999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="8">
+        <v>32064</v>
+      </c>
+      <c r="B168" s="9">
+        <v>14.049999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="8">
+        <v>32065</v>
+      </c>
+      <c r="B169" s="9">
+        <v>15.025000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" s="8">
+        <v>32066</v>
+      </c>
+      <c r="B170" s="9">
+        <v>15.514285714285716</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="8">
+        <v>32067</v>
+      </c>
+      <c r="B171" s="9">
+        <v>19.9375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="8">
+        <v>32068</v>
+      </c>
+      <c r="B172" s="9">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="8">
+        <v>32069</v>
+      </c>
+      <c r="B173" s="9">
+        <v>19.116666666666664</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" s="8">
+        <v>32070</v>
+      </c>
+      <c r="B174" s="9">
+        <v>22.65</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" s="8">
+        <v>32071</v>
+      </c>
+      <c r="B175" s="9">
+        <v>21.142857142857142</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="8">
+        <v>32072</v>
+      </c>
+      <c r="B176" s="9">
+        <v>13.2125</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" s="8">
+        <v>32073</v>
+      </c>
+      <c r="B177" s="9">
+        <v>13.425000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="8">
+        <v>32074</v>
+      </c>
+      <c r="B178" s="9">
+        <v>18.475000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" s="8">
+        <v>32075</v>
+      </c>
+      <c r="B179" s="9">
+        <v>19.450000000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" s="8">
+        <v>32076</v>
+      </c>
+      <c r="B180" s="9">
+        <v>17.485714285714284</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" s="8">
+        <v>32077</v>
+      </c>
+      <c r="B181" s="9">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" s="8">
+        <v>32078</v>
+      </c>
+      <c r="B182" s="9">
+        <v>17.012499999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" s="8">
+        <v>32079</v>
+      </c>
+      <c r="B183" s="9">
+        <v>11.9625</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" s="8">
+        <v>32080</v>
+      </c>
+      <c r="B184" s="9">
+        <v>12.399999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="9">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
